--- a/SBC65 V0/Hardware/SBC65 IO pins.xlsx
+++ b/SBC65 V0/Hardware/SBC65 IO pins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>PIN</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>SBC65 I/O pins</t>
+  </si>
+  <si>
+    <t>I2C SDA</t>
+  </si>
+  <si>
+    <t>I2C CLK</t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
@@ -626,6 +632,9 @@
       <c r="B20" t="s">
         <v>15</v>
       </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
@@ -723,7 +732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>29</v>
       </c>
@@ -731,7 +740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>30</v>
       </c>
@@ -739,15 +748,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>32</v>
       </c>
